--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Tnfsf11-Tnfrsf11a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Tnfsf11</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.71350042452638</v>
+        <v>1.781426666666666</v>
       </c>
       <c r="H2">
-        <v>1.71350042452638</v>
+        <v>5.344279999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9840117515485773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9840117515485773</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.711444271003274</v>
+        <v>1.214609</v>
       </c>
       <c r="N2">
-        <v>0.711444271003274</v>
+        <v>3.643827</v>
       </c>
       <c r="O2">
-        <v>0.01283183908582032</v>
+        <v>0.0200030946981306</v>
       </c>
       <c r="P2">
-        <v>0.01283183908582032</v>
+        <v>0.0200030946981306</v>
       </c>
       <c r="Q2">
-        <v>1.219060060390971</v>
+        <v>2.163736862173333</v>
       </c>
       <c r="R2">
-        <v>1.219060060390971</v>
+        <v>19.47363175956</v>
       </c>
       <c r="S2">
-        <v>0.01283183908582032</v>
+        <v>0.01968328025029955</v>
       </c>
       <c r="T2">
-        <v>0.01283183908582032</v>
+        <v>0.01968328025029955</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.71350042452638</v>
+        <v>1.781426666666666</v>
       </c>
       <c r="H3">
-        <v>1.71350042452638</v>
+        <v>5.344279999999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9840117515485773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9840117515485773</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.4955396375597</v>
+        <v>27.40937933333333</v>
       </c>
       <c r="N3">
-        <v>23.4955396375597</v>
+        <v>82.228138</v>
       </c>
       <c r="O3">
-        <v>0.423773155750511</v>
+        <v>0.4513982774881879</v>
       </c>
       <c r="P3">
-        <v>0.423773155750511</v>
+        <v>0.4513982774881879</v>
       </c>
       <c r="Q3">
-        <v>40.25961714343493</v>
+        <v>48.82779926118222</v>
       </c>
       <c r="R3">
-        <v>40.25961714343493</v>
+        <v>439.4501933506399</v>
       </c>
       <c r="S3">
-        <v>0.423773155750511</v>
+        <v>0.4441812096771626</v>
       </c>
       <c r="T3">
-        <v>0.423773155750511</v>
+        <v>0.4441812096771625</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.71350042452638</v>
+        <v>1.781426666666666</v>
       </c>
       <c r="H4">
-        <v>1.71350042452638</v>
+        <v>5.344279999999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9840117515485773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9840117515485773</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.8046317424425</v>
+        <v>26.031379</v>
       </c>
       <c r="N4">
-        <v>25.8046317424425</v>
+        <v>78.094137</v>
       </c>
       <c r="O4">
-        <v>0.4654206881460005</v>
+        <v>0.4287043314020629</v>
       </c>
       <c r="P4">
-        <v>0.4654206881460005</v>
+        <v>0.4287043314020629</v>
       </c>
       <c r="Q4">
-        <v>44.21624744542213</v>
+        <v>46.37299272070666</v>
       </c>
       <c r="R4">
-        <v>44.21624744542213</v>
+        <v>417.35693448636</v>
       </c>
       <c r="S4">
-        <v>0.4654206881460005</v>
+        <v>0.4218501000394057</v>
       </c>
       <c r="T4">
-        <v>0.4654206881460005</v>
+        <v>0.4218501000394057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.781426666666666</v>
+      </c>
+      <c r="H5">
+        <v>5.344279999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.9840117515485773</v>
+      </c>
+      <c r="J5">
+        <v>0.9840117515485773</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>5.799355333333334</v>
+      </c>
+      <c r="N5">
+        <v>17.398066</v>
+      </c>
+      <c r="O5">
+        <v>0.09550814617772092</v>
+      </c>
+      <c r="P5">
+        <v>0.09550814617772091</v>
+      </c>
+      <c r="Q5">
+        <v>10.33112624027556</v>
+      </c>
+      <c r="R5">
+        <v>92.98013616247999</v>
+      </c>
+      <c r="S5">
+        <v>0.09398113820749673</v>
+      </c>
+      <c r="T5">
+        <v>0.09398113820749672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.781426666666666</v>
+      </c>
+      <c r="H6">
+        <v>5.344279999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.9840117515485773</v>
+      </c>
+      <c r="J6">
+        <v>0.9840117515485773</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.2663316666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.798995</v>
+      </c>
+      <c r="O6">
+        <v>0.004386150233897729</v>
+      </c>
+      <c r="P6">
+        <v>0.004386150233897729</v>
+      </c>
+      <c r="Q6">
+        <v>0.4744503331777778</v>
+      </c>
+      <c r="R6">
+        <v>4.2700529986</v>
+      </c>
+      <c r="S6">
+        <v>0.004316023374212907</v>
+      </c>
+      <c r="T6">
+        <v>0.004316023374212906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.02894466666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.08683399999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="J7">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.214609</v>
+      </c>
+      <c r="N7">
+        <v>3.643827</v>
+      </c>
+      <c r="O7">
+        <v>0.0200030946981306</v>
+      </c>
+      <c r="P7">
+        <v>0.0200030946981306</v>
+      </c>
+      <c r="Q7">
+        <v>0.03515645263533333</v>
+      </c>
+      <c r="R7">
+        <v>0.316408073718</v>
+      </c>
+      <c r="S7">
+        <v>0.0003198144478310477</v>
+      </c>
+      <c r="T7">
+        <v>0.0003198144478310477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.02894466666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.08683399999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="J8">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>27.40937933333333</v>
+      </c>
+      <c r="N8">
+        <v>82.228138</v>
+      </c>
+      <c r="O8">
+        <v>0.4513982774881879</v>
+      </c>
+      <c r="P8">
+        <v>0.4513982774881879</v>
+      </c>
+      <c r="Q8">
+        <v>0.7933553483435555</v>
+      </c>
+      <c r="R8">
+        <v>7.140198135092</v>
+      </c>
+      <c r="S8">
+        <v>0.007217067811025383</v>
+      </c>
+      <c r="T8">
+        <v>0.007217067811025382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.71350042452638</v>
-      </c>
-      <c r="H5">
-        <v>1.71350042452638</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.4320558480743</v>
-      </c>
-      <c r="N5">
-        <v>5.4320558480743</v>
-      </c>
-      <c r="O5">
-        <v>0.09797431701766826</v>
-      </c>
-      <c r="P5">
-        <v>0.09797431701766826</v>
-      </c>
-      <c r="Q5">
-        <v>9.307830001726318</v>
-      </c>
-      <c r="R5">
-        <v>9.307830001726318</v>
-      </c>
-      <c r="S5">
-        <v>0.09797431701766826</v>
-      </c>
-      <c r="T5">
-        <v>0.09797431701766826</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02894466666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.08683399999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="J9">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>26.031379</v>
+      </c>
+      <c r="N9">
+        <v>78.094137</v>
+      </c>
+      <c r="O9">
+        <v>0.4287043314020629</v>
+      </c>
+      <c r="P9">
+        <v>0.4287043314020629</v>
+      </c>
+      <c r="Q9">
+        <v>0.7534695880286666</v>
+      </c>
+      <c r="R9">
+        <v>6.781226292258</v>
+      </c>
+      <c r="S9">
+        <v>0.006854231362657225</v>
+      </c>
+      <c r="T9">
+        <v>0.006854231362657225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02894466666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.08683399999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="J10">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.799355333333334</v>
+      </c>
+      <c r="N10">
+        <v>17.398066</v>
+      </c>
+      <c r="O10">
+        <v>0.09550814617772092</v>
+      </c>
+      <c r="P10">
+        <v>0.09550814617772091</v>
+      </c>
+      <c r="Q10">
+        <v>0.1678604070048889</v>
+      </c>
+      <c r="R10">
+        <v>1.510743663044</v>
+      </c>
+      <c r="S10">
+        <v>0.001527007970224197</v>
+      </c>
+      <c r="T10">
+        <v>0.001527007970224197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02894466666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.08683399999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="J11">
+        <v>0.01598824845142267</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2663316666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.798995</v>
+      </c>
+      <c r="O11">
+        <v>0.004386150233897729</v>
+      </c>
+      <c r="P11">
+        <v>0.004386150233897729</v>
+      </c>
+      <c r="Q11">
+        <v>0.007708881314444444</v>
+      </c>
+      <c r="R11">
+        <v>0.06937993182999999</v>
+      </c>
+      <c r="S11">
+        <v>7.012685968482257E-05</v>
+      </c>
+      <c r="T11">
+        <v>7.012685968482256E-05</v>
       </c>
     </row>
   </sheetData>
